--- a/eda/vlsp2016/train/column-1-analyze.xlsx
+++ b/eda/vlsp2016/train/column-1-analyze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>1</t>
   </si>
@@ -31,22 +31,10 @@
     <t>nhiều, hơn, khác, gần, lớn, cùng, nhỏ, đủ, cao, mới</t>
   </si>
   <si>
-    <t>Ab</t>
-  </si>
-  <si>
-    <t>sexy, Peace</t>
-  </si>
-  <si>
-    <t>B-NP</t>
-  </si>
-  <si>
-    <t>Nguyễn</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>thì, như, nhưng, mà, là, rồi, nên, Nhưng, nếu, rằng</t>
+    <t>và, thì, như, nhưng, mà, là, rồi, nên, Nhưng, nếu</t>
   </si>
   <si>
     <t>CH</t>
@@ -55,18 +43,6 @@
     <t>,, ., ", ..., :, “, ”, -, (, )</t>
   </si>
   <si>
-    <t>Cb</t>
-  </si>
-  <si>
-    <t>Alô</t>
-  </si>
-  <si>
-    <t>Cc</t>
-  </si>
-  <si>
-    <t>và, Và, hay, hoặc, cùng, với, hay là, đối với, Hoặc, cùng với</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -76,25 +52,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>Mercedes, Award, in, party, Naltrexone, Matiz, made, yaourt, bida, gas</t>
-  </si>
-  <si>
-    <t>Fw</t>
-  </si>
-  <si>
-    <t>karaoke, Eleocharis, Birdlife, Internationa, articulata, resort, Download, International, catalogue, diesel</t>
+    <t>tivi, casino, karaoke, bar, website, yaourt, heroin, taxi, dioxin, fax</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, ạ, à, Vâng, À, nhé, nhỉ, Thôi, thay, hả</t>
-  </si>
-  <si>
-    <t>I-NP</t>
-  </si>
-  <si>
-    <t>Thành Triệu, Công ty</t>
+    <t>ơi, ạ, à, Vâng, nhé, À, nhỉ, Thôi, thay, hả</t>
   </si>
   <si>
     <t>L</t>
@@ -106,7 +70,7 @@
     <t>M</t>
   </si>
   <si>
-    <t>một, hai, ba, Một, triệu, 10, bốn, 2, chục, 1</t>
+    <t>một, hai, ba, Một, triệu, 10, bốn, 2, 1, chục</t>
   </si>
   <si>
     <t>N</t>
@@ -115,70 +79,28 @@
     <t>người, khi, nhà, năm, ngày, con, sau, nước, đường, tiền</t>
   </si>
   <si>
-    <t>NNP</t>
-  </si>
-  <si>
-    <t>VN, Nguyễn, Văn, Mỹ, Hùng, Hải, Việt, Nam, Hà Nội, Hoàng</t>
-  </si>
-  <si>
-    <t>NNPY</t>
-  </si>
-  <si>
-    <t>IMB</t>
-  </si>
-  <si>
-    <t>NPP</t>
-  </si>
-  <si>
-    <t>Tôn Đản, Gò, Mả</t>
-  </si>
-  <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>tivi, casino, karaoke, bar, website, yaourt, heroin, taxi, dioxin, fax</t>
-  </si>
-  <si>
     <t>Nc</t>
   </si>
   <si>
-    <t>con, cái, chiếc, ngôi, cuốn, căn, tấm, cây, viên, lá</t>
-  </si>
-  <si>
-    <t>Ne</t>
-  </si>
-  <si>
-    <t>bọn, đoàn, đám, tụi, bộ, đàn, dãy, Bọn, đống, Tụi</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
-    <t>A5, A4, 1A, B, 2032TS, ROPL-34055, 105A, 25A, 60C-0779, C35i</t>
-  </si>
-  <si>
-    <t>Ns</t>
-  </si>
-  <si>
-    <t>ông, anh, người, chị, cô, Ông, bà, đứa, Anh, Chị</t>
+    <t>ông, anh, người, chị, con, cô, cái, Ông, bà, chiếc</t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>VN, Nguyễn, Văn, Mỹ, Hùng, Hải, Việt, Hà Nội, Nam, Hoàng</t>
   </si>
   <si>
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, m, giờ, g, kg, ha, km, USD, phút, đ</t>
+    <t>đồng, m, giờ, g, kg, ha, km, phút, USD, đ</t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>TP., TP, UBND, SV, ĐH, TB, DN, HIV, HS, LĐ</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>đường bộ, Chài, VN</t>
+    <t>TP., TP, UBND, SV, ĐH, TB, DN, HIV, LĐ, HS</t>
   </si>
   <si>
     <t>P</t>
@@ -187,12 +109,6 @@
     <t>tôi, này, đó, mình, đây, chúng tôi, họ, Tôi, gì, nào</t>
   </si>
   <si>
-    <t>Pp</t>
-  </si>
-  <si>
-    <t>Gò Mả</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -202,7 +118,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, chính, ngay, thôi, rồi, cái, Ngay, thật, mà, đâu</t>
+    <t>cả, chính, ngay, thôi, rồi, cái, Ngay, thật, đâu, mà</t>
   </si>
   <si>
     <t>V</t>
@@ -211,34 +127,22 @@
     <t>có, là, được, đi, ra, làm, phải, biết, lên, nói</t>
   </si>
   <si>
-    <t>Vb</t>
-  </si>
-  <si>
-    <t>photo, knock-out, chat, bye, copy, photocopy, OK, offline, xinhê, sex</t>
-  </si>
-  <si>
     <t>Vy</t>
   </si>
   <si>
-    <t>QLTT, PCCC</t>
+    <t>PCCC, QLTT</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>như thế, như vậy, làm sao, nhất là, thế nào, có lẽ, ngày càng, vì sao, một mình, Như vậy</t>
+    <t>như thế, như vậy, làm sao, nhất là, thế nào, ngày càng, có lẽ, vì sao, một mình, Như vậy</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>phó, viên, siêu, tái, tổng, bất, hoá, liên, vô, tiểu</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>đó</t>
+    <t>phó, viên, siêu, tổng, tái, bất, hoá, liên, vô, Phó</t>
   </si>
 </sst>
 </file>
@@ -587,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>19185</v>
+        <v>19192</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -622,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>12043</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -633,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>45532</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -644,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>8332</v>
+        <v>19724</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -655,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>45532</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -666,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -677,7 +581,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>3711</v>
+        <v>6038</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -688,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>19724</v>
+        <v>10868</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -699,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>121</v>
+        <v>76627</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -710,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>10505</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -721,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>123</v>
+        <v>17335</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -732,7 +636,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1567</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -743,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>6038</v>
+        <v>1367</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -754,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>10868</v>
+        <v>13307</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -765,7 +669,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>76625</v>
+        <v>21052</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -776,7 +680,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>17288</v>
+        <v>1831</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -787,7 +691,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>66737</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -798,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -809,7 +713,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="n">
-        <v>448</v>
+        <v>1164</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -820,186 +724,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>2808</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="n">
-        <v>428</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="n">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7269</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1567</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1366</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="n">
-        <v>13306</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="n">
-        <v>21052</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1831</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="n">
-        <v>66702</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="n">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1164</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="n">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
